--- a/data/zenodo/demands/CHE_dem_elec.xlsx
+++ b/data/zenodo/demands/CHE_dem_elec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7082C3D4-B92B-A342-8D0A-2A6B4C8BF94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D685CC78-C5BB-9040-B35C-87608886A23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="240" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$602</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$603</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -251,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,9 +294,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,26 +329,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,26 +364,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,30 +708,16 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>46578</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -778,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G11">
-        <v>47586</v>
+        <v>46578</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -810,10 +765,10 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G12">
-        <v>47866</v>
+        <v>47586</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -842,10 +797,10 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G13">
-        <v>47239</v>
+        <v>47866</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -874,10 +829,10 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G14">
-        <v>46897</v>
+        <v>47239</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -906,10 +861,10 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G15">
-        <v>47882</v>
+        <v>46897</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -938,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G16">
-        <v>48692</v>
+        <v>47882</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -970,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G17">
-        <v>48612</v>
+        <v>48692</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -1002,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G18">
-        <v>49620</v>
+        <v>48612</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -1034,10 +989,10 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G19">
-        <v>51213</v>
+        <v>49620</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -1066,10 +1021,10 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G20">
-        <v>52373</v>
+        <v>51213</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -1098,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G21">
-        <v>53749</v>
+        <v>52373</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -1130,10 +1085,10 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G22">
-        <v>54029</v>
+        <v>53749</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
@@ -1162,10 +1117,10 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G23">
-        <v>55122</v>
+        <v>54029</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
@@ -1194,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G24">
-        <v>56171</v>
+        <v>55122</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -1226,10 +1181,10 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G25">
-        <v>57330</v>
+        <v>56171</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
@@ -1258,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G26">
-        <v>57782</v>
+        <v>57330</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -1290,10 +1245,10 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G27">
-        <v>57432</v>
+        <v>57782</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -1322,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G28">
-        <v>58729</v>
+        <v>57432</v>
       </c>
       <c r="H28" t="s">
         <v>22</v>
@@ -1354,10 +1309,10 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G29">
-        <v>57494</v>
+        <v>58729</v>
       </c>
       <c r="H29" t="s">
         <v>22</v>
@@ -1386,10 +1341,10 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G30">
-        <v>59785</v>
+        <v>57494</v>
       </c>
       <c r="H30" t="s">
         <v>22</v>
@@ -1418,10 +1373,10 @@
         <v>20</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G31">
-        <v>58599</v>
+        <v>59785</v>
       </c>
       <c r="H31" t="s">
         <v>22</v>
@@ -1450,10 +1405,10 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G32">
-        <v>58973</v>
+        <v>58599</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -1482,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G33">
-        <v>59323</v>
+        <v>58973</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
@@ -1514,10 +1469,10 @@
         <v>20</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G34">
-        <v>57466</v>
+        <v>59323</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
@@ -1546,10 +1501,10 @@
         <v>20</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G35">
-        <v>58246</v>
+        <v>57466</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
@@ -1578,10 +1533,10 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G36">
-        <v>58239</v>
+        <v>58246</v>
       </c>
       <c r="H36" t="s">
         <v>22</v>
@@ -1610,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G37">
-        <v>58483</v>
+        <v>58239</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
@@ -1642,10 +1597,10 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G38">
-        <v>57647</v>
+        <v>58483</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
@@ -1674,29 +1629,61 @@
         <v>20</v>
       </c>
       <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="G39">
+        <v>57647</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>57198</v>
       </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K182" s="2"/>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L602" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L603" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
